--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +411,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +419,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +443,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +491,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +499,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +507,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +531,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +539,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -547,7 +547,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -555,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -563,7 +563,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
@@ -571,7 +571,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -579,7 +579,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -764,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -796,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -812,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -828,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -836,7 +836,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +844,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -852,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -860,7 +860,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -908,7 +908,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -924,7 +924,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -932,7 +932,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -940,7 +940,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
@@ -948,7 +948,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -956,7 +956,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1045,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1085,7 +1085,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1093,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1125,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -1133,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -1141,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -1149,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -1157,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -1173,7 +1173,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -1181,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1205,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -1213,7 +1213,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -1221,7 +1221,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -1229,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -1237,7 +1237,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
@@ -1245,7 +1245,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -1253,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -1261,7 +1261,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -1269,7 +1269,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -1277,7 +1277,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -1285,7 +1285,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -1293,7 +1293,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -1301,7 +1301,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -1309,7 +1309,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -1317,7 +1317,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -1325,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -1333,7 +1333,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1406,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1430,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -1454,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -1462,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -1470,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1478,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1486,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -1494,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1502,7 +1502,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1510,7 +1510,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1518,7 +1518,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -1526,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -1534,7 +1534,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -1542,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -1550,7 +1550,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
@@ -1558,7 +1558,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -1566,7 +1566,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
@@ -1574,7 +1574,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -1582,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -1590,7 +1590,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -1598,7 +1598,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -1606,7 +1606,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -1614,7 +1614,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -1622,7 +1622,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -1630,7 +1630,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -1638,7 +1638,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -1646,7 +1646,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -1654,7 +1654,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -1662,7 +1662,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -1703,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1727,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1735,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1743,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1759,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1775,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -1783,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -1799,7 +1799,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -1807,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -1815,7 +1815,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1823,7 +1823,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -1831,7 +1831,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1839,7 +1839,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -1847,7 +1847,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -1855,7 +1855,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -1879,7 +1879,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -1887,7 +1887,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -1895,7 +1895,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -1903,7 +1903,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -1911,7 +1911,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -1919,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
@@ -1927,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -1935,7 +1935,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -1943,7 +1943,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -1951,7 +1951,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -1959,7 +1959,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -1967,7 +1967,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
@@ -1975,7 +1975,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -1983,7 +1983,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1991,7 +1991,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2024,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -2032,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -2040,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -2048,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -2056,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -2064,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -2072,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -2080,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -2096,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -2104,7 +2104,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2112,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2120,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -2128,7 +2128,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -2136,7 +2136,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -2144,7 +2144,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -2152,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -2160,7 +2160,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -2168,7 +2168,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -2176,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -2184,7 +2184,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -2192,7 +2192,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -2200,7 +2200,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -2208,7 +2208,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -2216,7 +2216,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -2224,7 +2224,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -2232,7 +2232,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -2240,7 +2240,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -2248,7 +2248,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -2256,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -2264,7 +2264,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
@@ -2272,7 +2272,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -2280,7 +2280,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
@@ -2288,7 +2288,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -2296,7 +2296,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -2304,7 +2304,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -2312,7 +2312,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -2320,7 +2320,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,305 +376,473 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B60">
         <v>130</v>
       </c>
     </row>
@@ -685,7 +853,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,305 +873,473 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B60">
         <v>130</v>
       </c>
     </row>
@@ -1014,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1034,305 +1370,473 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>117</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B60">
         <v>130</v>
       </c>
     </row>
@@ -1343,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1363,305 +1867,473 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B60">
         <v>130</v>
       </c>
     </row>
@@ -1672,7 +2344,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1692,7 +2364,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1700,7 +2372,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1708,7 +2380,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -1716,7 +2388,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -1724,7 +2396,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -1732,7 +2404,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -1740,7 +2412,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -1748,249 +2420,417 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B60">
         <v>115</v>
       </c>
     </row>
@@ -2001,7 +2841,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2021,7 +2861,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2029,7 +2869,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -2037,7 +2877,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -2045,7 +2885,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -2053,7 +2893,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -2061,7 +2901,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -2069,7 +2909,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -2077,7 +2917,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -2085,7 +2925,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -2093,7 +2933,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -2101,7 +2941,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -2109,217 +2949,385 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B60">
         <v>105</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,473 +376,313 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>32</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>33</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>35</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>36</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>37</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>38</v>
-      </c>
-      <c r="B60">
         <v>130</v>
       </c>
     </row>
@@ -853,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -873,473 +713,313 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>57</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>32</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>33</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>35</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>36</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>37</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>38</v>
-      </c>
-      <c r="B60">
         <v>130</v>
       </c>
     </row>
@@ -1350,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1370,473 +1050,313 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>32</v>
-      </c>
-      <c r="B54">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>33</v>
-      </c>
-      <c r="B55">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>35</v>
-      </c>
-      <c r="B57">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>36</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>37</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>38</v>
-      </c>
-      <c r="B60">
         <v>130</v>
       </c>
     </row>
@@ -1847,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1867,473 +1387,313 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>32</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>33</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>35</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>36</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>37</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>38</v>
-      </c>
-      <c r="B60">
         <v>130</v>
       </c>
     </row>
@@ -2344,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2364,7 +1724,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2372,7 +1732,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -2380,7 +1740,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -2388,7 +1748,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -2396,7 +1756,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -2404,7 +1764,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -2412,7 +1772,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -2420,7 +1780,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -2428,409 +1788,249 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>65</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>32</v>
-      </c>
-      <c r="B54">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>33</v>
-      </c>
-      <c r="B55">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>35</v>
-      </c>
-      <c r="B57">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>36</v>
-      </c>
-      <c r="B58">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>37</v>
-      </c>
-      <c r="B59">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>38</v>
-      </c>
-      <c r="B60">
         <v>115</v>
       </c>
     </row>
@@ -2841,7 +2041,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2861,7 +2061,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2869,7 +2069,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -2877,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -2885,7 +2085,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -2893,7 +2093,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -2901,7 +2101,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -2909,7 +2109,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -2917,7 +2117,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -2925,7 +2125,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -2933,7 +2133,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -2941,7 +2141,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -2949,7 +2149,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>40</v>
@@ -2957,377 +2157,217 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>32</v>
-      </c>
-      <c r="B54">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>33</v>
-      </c>
-      <c r="B55">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>35</v>
-      </c>
-      <c r="B57">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>36</v>
-      </c>
-      <c r="B58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>37</v>
-      </c>
-      <c r="B59">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>38</v>
-      </c>
-      <c r="B60">
         <v>105</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +419,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -451,7 +451,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +483,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +499,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +515,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +531,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +539,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -547,7 +547,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
@@ -555,7 +555,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -563,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -571,7 +571,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -579,7 +579,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
@@ -587,7 +587,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -764,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -812,7 +812,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -828,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -836,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -844,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -852,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -860,7 +860,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -868,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -876,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -884,7 +884,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -892,7 +892,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -916,7 +916,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -932,7 +932,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -940,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -948,7 +948,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -956,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -972,7 +972,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
@@ -980,7 +980,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1077,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1101,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1109,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1117,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1125,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -1133,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1141,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1149,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1157,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -1173,7 +1173,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -1181,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -1189,7 +1189,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -1197,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1205,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -1245,7 +1245,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1253,7 +1253,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -1261,7 +1261,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -1269,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -1277,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -1285,7 +1285,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -1293,7 +1293,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1301,7 +1301,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1309,7 +1309,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -1317,7 +1317,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -1325,7 +1325,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -1333,7 +1333,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -1341,7 +1341,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1357,7 +1357,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1414,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1438,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1446,7 +1446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -1454,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -1462,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -1478,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1494,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -1502,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -1510,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -1518,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -1526,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -1534,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -1542,7 +1542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -1550,7 +1550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1558,7 +1558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -1566,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -1582,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1590,7 +1590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -1598,7 +1598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -1606,7 +1606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -1614,7 +1614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1622,7 +1622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -1630,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -1638,7 +1638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1654,7 +1654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -1662,7 +1662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -1670,7 +1670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -1678,7 +1678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -1686,7 +1686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -1694,7 +1694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1767,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1775,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -1783,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -1791,7 +1791,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1799,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -1807,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -1815,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1823,7 +1823,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1831,7 +1831,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -1839,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1855,7 +1855,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -1863,7 +1863,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1871,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -1879,7 +1879,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -1887,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -1903,7 +1903,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -1911,7 +1911,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -1919,7 +1919,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -1927,7 +1927,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -1935,7 +1935,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -1943,7 +1943,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -1951,7 +1951,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -1959,7 +1959,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -1967,7 +1967,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -1975,7 +1975,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -1983,7 +1983,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -1991,7 +1991,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -1999,7 +1999,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -2015,7 +2015,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -2023,7 +2023,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -2031,7 +2031,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -2128,7 +2128,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -2136,7 +2136,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -2144,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -2160,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2168,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -2176,7 +2176,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -2184,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -2192,7 +2192,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -2200,7 +2200,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -2208,7 +2208,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -2216,7 +2216,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -2224,7 +2224,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -2240,7 +2240,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -2248,7 +2248,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -2256,7 +2256,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -2264,7 +2264,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -2272,7 +2272,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -2280,7 +2280,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -2288,7 +2288,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -2296,7 +2296,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -2304,7 +2304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -2312,7 +2312,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -2320,7 +2320,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -2328,7 +2328,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
@@ -2336,7 +2336,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -2344,7 +2344,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -2352,7 +2352,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -2360,7 +2360,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -2368,7 +2368,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
